--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rn.merzius\Documents\projet_01_3D\P46-Projet01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67CC821C-540C-4243-951A-20E0EA4E0BCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39831E8F-8502-4DDA-BCF6-E16B26D7B9CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">Lode Runner </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>Décor</t>
   </si>
@@ -66,9 +63,6 @@
     <t>Animation Gardes</t>
   </si>
   <si>
-    <t>Déplacement Gardes</t>
-  </si>
-  <si>
     <t>Gardes sur une échelle</t>
   </si>
   <si>
@@ -78,17 +72,104 @@
     <t>Garde qui tombe</t>
   </si>
   <si>
-    <t>Garde qui perce un trou</t>
-  </si>
-  <si>
     <t>Garde Lode Runner</t>
+  </si>
+  <si>
+    <t>ÉLÉMENTS</t>
+  </si>
+  <si>
+    <t>LODE RUNNER</t>
+  </si>
+  <si>
+    <t>Date Debut</t>
+  </si>
+  <si>
+    <t>Date Fin</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Éléments audio/visuels</t>
+  </si>
+  <si>
+    <t>Dessiner images et trouver sons</t>
+  </si>
+  <si>
+    <t>17-02-2020</t>
+  </si>
+  <si>
+    <t>21-02-2020</t>
+  </si>
+  <si>
+    <t>Ankit, Ribensky</t>
+  </si>
+  <si>
+    <t>Fini</t>
+  </si>
+  <si>
+    <t>Déplacement Gardes (Algorithme)</t>
+  </si>
+  <si>
+    <t>23-02-2020</t>
+  </si>
+  <si>
+    <t>26-02-2020</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Touches finales</t>
+  </si>
+  <si>
+    <t>Bug checks</t>
+  </si>
+  <si>
+    <t>09-03-2020</t>
+  </si>
+  <si>
+    <t>Fonctionnement du jeu</t>
+  </si>
+  <si>
+    <t>Pointage</t>
+  </si>
+  <si>
+    <t>"Game Over"</t>
+  </si>
+  <si>
+    <t>Remise</t>
+  </si>
+  <si>
+    <t>07-03-2020</t>
+  </si>
+  <si>
+    <t>04-03-2020</t>
+  </si>
+  <si>
+    <t>06-03-2020</t>
+  </si>
+  <si>
+    <t>Ribensky</t>
+  </si>
+  <si>
+    <t>Moitie fini</t>
+  </si>
+  <si>
+    <t>Pas commencé</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>Prochain niveau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,22 +186,96 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <u/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,17 +283,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,97 +638,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB730C-8DFC-4F8E-B8DC-E7BD908766F6}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="F7" s="17"/>
+      <c r="H7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="H8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39831E8F-8502-4DDA-BCF6-E16B26D7B9CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1960947-DE94-489A-8F0E-1610913D1DC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -324,6 +324,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB730C-8DFC-4F8E-B8DC-E7BD908766F6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,8 +734,8 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>40</v>
+      <c r="F9" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>41</v>

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1960947-DE94-489A-8F0E-1610913D1DC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2E555-EB37-459D-B55F-00FC0AC9A3CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
+    <workbookView xWindow="10665" yWindow="420" windowWidth="13440" windowHeight="13890" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>Décor</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Déplacement Gardes (Algorithme)</t>
-  </si>
-  <si>
-    <t>23-02-2020</t>
   </si>
   <si>
     <t>26-02-2020</t>
@@ -243,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -296,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -325,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB730C-8DFC-4F8E-B8DC-E7BD908766F6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -718,27 +722,27 @@
         <v>0</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -754,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -771,16 +775,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -788,16 +792,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -805,16 +809,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
       <c r="F16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,16 +843,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -861,16 +865,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -878,16 +882,16 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,16 +899,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
       <c r="F22" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,16 +916,16 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,16 +933,16 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,96 +950,96 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
       <c r="F27" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA2E555-EB37-459D-B55F-00FC0AC9A3CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A2E1D-E976-452A-BC20-C90A5B58470A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="420" windowWidth="13440" windowHeight="13890" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>Décor</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Prochain niveau</t>
+  </si>
+  <si>
+    <t>24-02-2020</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB730C-8DFC-4F8E-B8DC-E7BD908766F6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,34 +760,34 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
+      <c r="C12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>40</v>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
+      <c r="C13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>40</v>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programmation 3D\Projet1\Lode Runner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.patel\Documents\Visual Studio Code WS\P46-Projet01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A2E1D-E976-452A-BC20-C90A5B58470A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD22C66-65A2-44A1-ACF4-7C9671446B74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
+    <workbookView xWindow="10665" yWindow="420" windowWidth="13440" windowHeight="13890" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>Décor</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>24-02-2020</t>
+  </si>
+  <si>
+    <t>Complété tôt</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB730C-8DFC-4F8E-B8DC-E7BD908766F6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,6 +753,9 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10" s="18"/>
+      <c r="H10" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.patel\Documents\Visual Studio Code WS\P46-Projet01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD22C66-65A2-44A1-ACF4-7C9671446B74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E7953-25E8-4A2F-9937-7B05B76A3CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="420" windowWidth="13440" windowHeight="13890" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
+    <workbookView xWindow="2100" yWindow="255" windowWidth="19140" windowHeight="15765" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -652,7 +654,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>40</v>
@@ -817,17 +819,17 @@
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,34 +968,34 @@
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>40</v>
+      <c r="F28" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61E7953-25E8-4A2F-9937-7B05B76A3CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3319F337-AD66-4895-9617-084E2A48D669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="255" windowWidth="19140" windowHeight="15765" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
+    <workbookView xWindow="8865" yWindow="405" windowWidth="19140" windowHeight="15765" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,17 +802,17 @@
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>40</v>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -845,8 +845,8 @@
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>40</v>
+      <c r="F16" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,10 +860,10 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1002,17 +1002,17 @@
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>40</v>
+      <c r="F29" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3319F337-AD66-4895-9617-084E2A48D669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648C5F1-4629-4C67-AF7D-3EF8A4649537}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="405" windowWidth="19140" windowHeight="15765" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
+    <workbookView xWindow="10665" yWindow="420" windowWidth="13440" windowHeight="13890" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB730C-8DFC-4F8E-B8DC-E7BD908766F6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,8 +884,8 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>40</v>
+      <c r="F20" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,8 +901,8 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>40</v>
+      <c r="F21" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,8 +935,8 @@
       <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>40</v>
+      <c r="F23" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,8 +952,8 @@
       <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>40</v>
+      <c r="F24" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/Planification Lode Runner.xlsx
+++ b/Planification Lode Runner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programmation 3D\Projet1\Lode Runner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648C5F1-4629-4C67-AF7D-3EF8A4649537}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66304BF2-FA3B-419A-82CA-41DBB810EA09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10665" yWindow="420" windowWidth="13440" windowHeight="13890" xr2:uid="{CF5DF6F3-6DC7-41D0-A2EB-7A2EBAE079CD}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>Décor</t>
   </si>
@@ -168,6 +166,12 @@
   </si>
   <si>
     <t>Complété tôt</t>
+  </si>
+  <si>
+    <t>Complété tard</t>
+  </si>
+  <si>
+    <t>Complété à temps</t>
   </si>
 </sst>
 </file>
@@ -248,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +289,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -307,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,6 +353,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FB730C-8DFC-4F8E-B8DC-E7BD908766F6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +723,10 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
@@ -763,6 +781,9 @@
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H11" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -780,6 +801,9 @@
       <c r="F12" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="H12" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -802,10 +826,10 @@
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E14" t="s">
@@ -836,10 +860,10 @@
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E16" t="s">
@@ -853,10 +877,10 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
@@ -875,10 +899,10 @@
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E20" t="s">
@@ -892,10 +916,10 @@
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
@@ -909,27 +933,27 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>40</v>
+      <c r="F22" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E23" t="s">
@@ -943,10 +967,10 @@
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E24" t="s">
